--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.24752933333333</v>
+        <v>17.81824933333333</v>
       </c>
       <c r="H2">
-        <v>150.742588</v>
+        <v>53.454748</v>
       </c>
       <c r="I2">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147032</v>
       </c>
       <c r="J2">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147034</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N2">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q2">
-        <v>135.7363643547173</v>
+        <v>13.25606477402667</v>
       </c>
       <c r="R2">
-        <v>1221.627279192456</v>
+        <v>119.30458296624</v>
       </c>
       <c r="S2">
-        <v>0.002875416175866739</v>
+        <v>0.0003242275848388987</v>
       </c>
       <c r="T2">
-        <v>0.002875416175866739</v>
+        <v>0.0003242275848388989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.24752933333333</v>
+        <v>17.81824933333333</v>
       </c>
       <c r="H3">
-        <v>150.742588</v>
+        <v>53.454748</v>
       </c>
       <c r="I3">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147032</v>
       </c>
       <c r="J3">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147034</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
         <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q3">
-        <v>4429.308924263702</v>
+        <v>1570.674853749143</v>
       </c>
       <c r="R3">
-        <v>39863.78031837333</v>
+        <v>14136.07368374229</v>
       </c>
       <c r="S3">
-        <v>0.09382973081152908</v>
+        <v>0.03841683961865428</v>
       </c>
       <c r="T3">
-        <v>0.09382973081152908</v>
+        <v>0.0384168396186543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.24752933333333</v>
+        <v>17.81824933333333</v>
       </c>
       <c r="H4">
-        <v>150.742588</v>
+        <v>53.454748</v>
       </c>
       <c r="I4">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147032</v>
       </c>
       <c r="J4">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147034</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N4">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q4">
-        <v>1534.148638294288</v>
+        <v>530.4243252254338</v>
       </c>
       <c r="R4">
-        <v>13807.33774464859</v>
+        <v>4773.818927028904</v>
       </c>
       <c r="S4">
-        <v>0.03249914517532913</v>
+        <v>0.01297354839760675</v>
       </c>
       <c r="T4">
-        <v>0.03249914517532913</v>
+        <v>0.01297354839760675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.24752933333333</v>
+        <v>17.81824933333333</v>
       </c>
       <c r="H5">
-        <v>150.742588</v>
+        <v>53.454748</v>
       </c>
       <c r="I5">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147032</v>
       </c>
       <c r="J5">
-        <v>0.1294604271951564</v>
+        <v>0.05180179233147034</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N5">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q5">
-        <v>12.09106298348</v>
+        <v>3.564225990061778</v>
       </c>
       <c r="R5">
-        <v>108.81956685132</v>
+        <v>32.07803391055601</v>
       </c>
       <c r="S5">
-        <v>0.0002561350324314449</v>
+        <v>8.717673037039117E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002561350324314449</v>
+        <v>8.717673037039121E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>454.26828</v>
       </c>
       <c r="I6">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="J6">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N6">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q6">
-        <v>409.04647841704</v>
+        <v>112.6524765296</v>
       </c>
       <c r="R6">
-        <v>3681.41830575336</v>
+        <v>1013.8722887664</v>
       </c>
       <c r="S6">
-        <v>0.008665171388029779</v>
+        <v>0.002755345648497316</v>
       </c>
       <c r="T6">
-        <v>0.008665171388029778</v>
+        <v>0.002755345648497317</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>454.26828</v>
       </c>
       <c r="I7">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="J7">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
         <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q7">
-        <v>13347.88378858086</v>
+        <v>13347.88378858085</v>
       </c>
       <c r="R7">
         <v>120130.9540972277</v>
       </c>
       <c r="S7">
-        <v>0.2827593117123366</v>
+        <v>0.3264733687754349</v>
       </c>
       <c r="T7">
-        <v>0.2827593117123365</v>
+        <v>0.3264733687754349</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>454.26828</v>
       </c>
       <c r="I8">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="J8">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N8">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q8">
-        <v>4623.212805542974</v>
+        <v>4507.643472387494</v>
       </c>
       <c r="R8">
-        <v>41608.91524988676</v>
+        <v>40568.79125148744</v>
       </c>
       <c r="S8">
-        <v>0.09793735782396852</v>
+        <v>0.1102516004018497</v>
       </c>
       <c r="T8">
-        <v>0.09793735782396851</v>
+        <v>0.1102516004018497</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>454.26828</v>
       </c>
       <c r="I9">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="J9">
-        <v>0.3901337131747328</v>
+        <v>0.4402211587141748</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N9">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q9">
-        <v>36.43685873880001</v>
+        <v>30.28944800257334</v>
       </c>
       <c r="R9">
-        <v>327.9317286492</v>
+        <v>272.60503202316</v>
       </c>
       <c r="S9">
-        <v>0.0007718722503979879</v>
+        <v>0.000740843888392877</v>
       </c>
       <c r="T9">
-        <v>0.0007718722503979878</v>
+        <v>0.0007408438883928771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>101.3126446666667</v>
+        <v>100.6958183333333</v>
       </c>
       <c r="H10">
-        <v>303.937934</v>
+        <v>302.087455</v>
       </c>
       <c r="I10">
-        <v>0.261027326772798</v>
+        <v>0.29274614875843</v>
       </c>
       <c r="J10">
-        <v>0.2610273267727979</v>
+        <v>0.2927461487584301</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N10">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q10">
-        <v>273.6813179208787</v>
+        <v>74.91366100726667</v>
       </c>
       <c r="R10">
-        <v>2463.131861287908</v>
+        <v>674.2229490654</v>
       </c>
       <c r="S10">
-        <v>0.005797618731894915</v>
+        <v>0.00183229908678607</v>
       </c>
       <c r="T10">
-        <v>0.005797618731894914</v>
+        <v>0.001832299086786071</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>101.3126446666667</v>
+        <v>100.6958183333333</v>
       </c>
       <c r="H11">
-        <v>303.937934</v>
+        <v>302.087455</v>
       </c>
       <c r="I11">
-        <v>0.261027326772798</v>
+        <v>0.29274614875843</v>
       </c>
       <c r="J11">
-        <v>0.2610273267727979</v>
+        <v>0.2927461487584301</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
         <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q11">
-        <v>8930.687878918947</v>
+        <v>8876.314770047666</v>
       </c>
       <c r="R11">
-        <v>80376.19091027052</v>
+        <v>79886.83293042898</v>
       </c>
       <c r="S11">
-        <v>0.1891861809526071</v>
+        <v>0.2171041066275805</v>
       </c>
       <c r="T11">
-        <v>0.1891861809526071</v>
+        <v>0.2171041066275805</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>101.3126446666667</v>
+        <v>100.6958183333333</v>
       </c>
       <c r="H12">
-        <v>303.937934</v>
+        <v>302.087455</v>
       </c>
       <c r="I12">
-        <v>0.261027326772798</v>
+        <v>0.29274614875843</v>
       </c>
       <c r="J12">
-        <v>0.2610273267727979</v>
+        <v>0.2927461487584301</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N12">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q12">
-        <v>3093.259667082798</v>
+        <v>2997.573470507121</v>
       </c>
       <c r="R12">
-        <v>27839.33700374518</v>
+        <v>26978.16123456409</v>
       </c>
       <c r="S12">
-        <v>0.06552708940724572</v>
+        <v>0.07331708340954768</v>
       </c>
       <c r="T12">
-        <v>0.06552708940724571</v>
+        <v>0.07331708340954769</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>101.3126446666667</v>
+        <v>100.6958183333333</v>
       </c>
       <c r="H13">
-        <v>303.937934</v>
+        <v>302.087455</v>
       </c>
       <c r="I13">
-        <v>0.261027326772798</v>
+        <v>0.29274614875843</v>
       </c>
       <c r="J13">
-        <v>0.2610273267727979</v>
+        <v>0.2927461487584301</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N13">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q13">
-        <v>24.37886168614001</v>
+        <v>20.14241949812612</v>
       </c>
       <c r="R13">
-        <v>219.40975517526</v>
+        <v>181.281775483135</v>
       </c>
       <c r="S13">
-        <v>0.0005164376810502709</v>
+        <v>0.0004926596345157717</v>
       </c>
       <c r="T13">
-        <v>0.0005164376810502708</v>
+        <v>0.0004926596345157718</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>85.147481</v>
+        <v>74.032918</v>
       </c>
       <c r="H14">
-        <v>255.442443</v>
+        <v>222.098754</v>
       </c>
       <c r="I14">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959248</v>
       </c>
       <c r="J14">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959249</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N14">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q14">
-        <v>230.013488389274</v>
+        <v>55.07752967527999</v>
       </c>
       <c r="R14">
-        <v>2070.121395503466</v>
+        <v>495.6977670775199</v>
       </c>
       <c r="S14">
-        <v>0.004872566819704047</v>
+        <v>0.001347130896681969</v>
       </c>
       <c r="T14">
-        <v>0.004872566819704047</v>
+        <v>0.00134713089668197</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>85.147481</v>
+        <v>74.032918</v>
       </c>
       <c r="H15">
-        <v>255.442443</v>
+        <v>222.098754</v>
       </c>
       <c r="I15">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959248</v>
       </c>
       <c r="J15">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959249</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N15">
         <v>264.449356</v>
       </c>
       <c r="O15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q15">
-        <v>7505.732171824079</v>
+        <v>6525.985829300268</v>
       </c>
       <c r="R15">
-        <v>67551.58954641671</v>
+        <v>58733.87246370241</v>
       </c>
       <c r="S15">
-        <v>0.1590001603563378</v>
+        <v>0.159617854936309</v>
       </c>
       <c r="T15">
-        <v>0.1590001603563378</v>
+        <v>0.159617854936309</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>85.147481</v>
+        <v>74.032918</v>
       </c>
       <c r="H16">
-        <v>255.442443</v>
+        <v>222.098754</v>
       </c>
       <c r="I16">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959248</v>
       </c>
       <c r="J16">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959249</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N16">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q16">
-        <v>2599.707762022876</v>
+        <v>2203.856273419521</v>
       </c>
       <c r="R16">
-        <v>23397.36985820588</v>
+        <v>19834.70646077569</v>
       </c>
       <c r="S16">
-        <v>0.05507176935955044</v>
+        <v>0.05390370438313834</v>
       </c>
       <c r="T16">
-        <v>0.05507176935955043</v>
+        <v>0.05390370438313835</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>85.147481</v>
+        <v>74.032918</v>
       </c>
       <c r="H17">
-        <v>255.442443</v>
+        <v>222.098754</v>
       </c>
       <c r="I17">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959248</v>
       </c>
       <c r="J17">
-        <v>0.2193785328573129</v>
+        <v>0.2152309001959249</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N17">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q17">
-        <v>20.48903835303</v>
+        <v>14.80897733101533</v>
       </c>
       <c r="R17">
-        <v>184.40134517727</v>
+        <v>133.280795979138</v>
       </c>
       <c r="S17">
-        <v>0.0004340363217206575</v>
+        <v>0.0003622099797955803</v>
       </c>
       <c r="T17">
-        <v>0.0004340363217206574</v>
+        <v>0.0003622099797955804</v>
       </c>
     </row>
   </sheetData>
